--- a/app/static/Flu09/overview/adj_modules.xlsx
+++ b/app/static/Flu09/overview/adj_modules.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>Adjusted Modules:</t>
+    <t>modul_1</t>
+  </si>
+  <si>
+    <t>modul_2</t>
+  </si>
+  <si>
+    <t>modul_3</t>
+  </si>
+  <si>
+    <t>modul_4</t>
   </si>
   <si>
     <t>['FLT3L', 'IL1α', 'IL1β', 'IL2', 'IL3', 'IL4', 'IL5', 'IL7', 'IL9', 'IL10', 'IL12-P40', 'IL12-P70', 'IL13', 'IL15', 'TNFβ']</t>
@@ -392,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,39 +414,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
